--- a/data/metadata/mapping-numero-habitaciones.xlsx
+++ b/data/metadata/mapping-numero-habitaciones.xlsx
@@ -472,7 +472,7 @@
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/430</t>
   </si>
   <si>
-    <t>10-o-mas</t>
+    <t>10 o más</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/10-o-mas</t>

--- a/data/metadata/mapping-numero-habitaciones.xlsx
+++ b/data/metadata/mapping-numero-habitaciones.xlsx
@@ -13,12 +13,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="536">
   <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/16190</t>
+  </si>
+  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/8093</t>
   </si>
   <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/16190</t>
-  </si>
-  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/17161</t>
   </si>
   <si>
@@ -52,15 +52,15 @@
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/4</t>
   </si>
   <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/10308</t>
+  </si>
+  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/5</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/1586</t>
   </si>
   <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/10308</t>
-  </si>
-  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/6</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/1005</t>
   </si>
   <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/1125</t>
+  </si>
+  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/1488</t>
   </si>
   <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/1125</t>
-  </si>
-  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/1366</t>
   </si>
   <si>
@@ -151,15 +151,15 @@
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/704</t>
   </si>
   <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/948</t>
+  </si>
+  <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/134391</t>
+  </si>
+  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/827</t>
   </si>
   <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/948</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/134391</t>
-  </si>
-  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/708</t>
   </si>
   <si>
@@ -310,21 +310,21 @@
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/753</t>
   </si>
   <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/2025</t>
+  </si>
+  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/754</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/633</t>
   </si>
   <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/2025</t>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/3113</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/1177</t>
   </si>
   <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/3113</t>
-  </si>
-  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/878</t>
   </si>
   <si>
@@ -355,12 +355,12 @@
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/523</t>
   </si>
   <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/3487</t>
+  </si>
+  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/887</t>
   </si>
   <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/3487</t>
-  </si>
-  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/646</t>
   </si>
   <si>
@@ -868,6 +868,9 @@
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/120</t>
   </si>
   <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/484</t>
+  </si>
+  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/363</t>
   </si>
   <si>
@@ -877,9 +880,6 @@
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/121</t>
   </si>
   <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/484</t>
-  </si>
-  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/122</t>
   </si>
   <si>
@@ -976,15 +976,15 @@
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/372</t>
   </si>
   <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/373</t>
+  </si>
+  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/131</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/252</t>
   </si>
   <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/373</t>
-  </si>
-  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/253</t>
   </si>
   <si>
@@ -1060,12 +1060,12 @@
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/38</t>
   </si>
   <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/21099</t>
+  </si>
+  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/39</t>
   </si>
   <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/21099</t>
-  </si>
-  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/381</t>
   </si>
   <si>
@@ -1240,12 +1240,12 @@
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/57</t>
   </si>
   <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/5198</t>
+  </si>
+  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/58</t>
   </si>
   <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/5198</t>
-  </si>
-  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/59</t>
   </si>
   <si>
@@ -1555,12 +1555,12 @@
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/2730</t>
   </si>
   <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/17557</t>
+  </si>
+  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/1528</t>
   </si>
   <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/17557</t>
-  </si>
-  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/25291</t>
   </si>
   <si>
@@ -1585,10 +1585,10 @@
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/1783</t>
   </si>
   <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/5917</t>
+  </si>
+  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/2766</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/5917</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/1313</t>
@@ -1687,7 +1687,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1">
-        <v>8093.0</v>
+        <v>16190.0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>16190.0</v>
+        <v>8093.0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>5.0</v>
+        <v>10308.0</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>1586.0</v>
+        <v>5.0</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>10308.0</v>
+        <v>1586.0</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1">
-        <v>1488.0</v>
+        <v>1125.0</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>39</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>1125.0</v>
+        <v>1488.0</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>40</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1">
-        <v>827.0</v>
+        <v>948.0</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>46</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1">
-        <v>948.0</v>
+        <v>134391.0</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>47</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1">
-        <v>134391.0</v>
+        <v>827.0</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>48</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1">
-        <v>754.0</v>
+        <v>2025.0</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>99</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1">
-        <v>633.0</v>
+        <v>754.0</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>100</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1">
-        <v>2025.0</v>
+        <v>633.0</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>101</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1">
-        <v>1177.0</v>
+        <v>3113.0</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>102</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1">
-        <v>3113.0</v>
+        <v>1177.0</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>103</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1">
-        <v>887.0</v>
+        <v>3487.0</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>114</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1">
-        <v>3487.0</v>
+        <v>887.0</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>115</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="285">
       <c r="A285" s="1">
-        <v>363.0</v>
+        <v>484.0</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>285</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="286">
       <c r="A286" s="1">
-        <v>242.0</v>
+        <v>363.0</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>286</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="287">
       <c r="A287" s="1">
-        <v>121.0</v>
+        <v>242.0</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>287</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="288">
       <c r="A288" s="1">
-        <v>484.0</v>
+        <v>121.0</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>288</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="321">
       <c r="A321" s="1">
-        <v>131.0</v>
+        <v>373.0</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>321</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="322">
       <c r="A322" s="1">
-        <v>252.0</v>
+        <v>131.0</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>322</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="323">
       <c r="A323" s="1">
-        <v>373.0</v>
+        <v>252.0</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>323</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="349">
       <c r="A349" s="1">
-        <v>39.0</v>
+        <v>21099.0</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>349</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="350">
       <c r="A350" s="1">
-        <v>21099.0</v>
+        <v>39.0</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>350</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="409">
       <c r="A409" s="1">
-        <v>58.0</v>
+        <v>5198.0</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>409</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="410">
       <c r="A410" s="1">
-        <v>5198.0</v>
+        <v>58.0</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>410</v>
@@ -5791,7 +5791,7 @@
     </row>
     <row r="514">
       <c r="A514" s="1">
-        <v>1528.0</v>
+        <v>17557.0</v>
       </c>
       <c r="B514" s="2" t="s">
         <v>514</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="515">
       <c r="A515" s="1">
-        <v>17557.0</v>
+        <v>1528.0</v>
       </c>
       <c r="B515" s="2" t="s">
         <v>515</v>
@@ -5871,7 +5871,7 @@
     </row>
     <row r="524">
       <c r="A524" s="1">
-        <v>2766.0</v>
+        <v>5917.0</v>
       </c>
       <c r="B524" s="2" t="s">
         <v>524</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="525">
       <c r="A525" s="1">
-        <v>5917.0</v>
+        <v>2766.0</v>
       </c>
       <c r="B525" s="2" t="s">
         <v>525</v>

--- a/data/metadata/mapping-numero-habitaciones.xlsx
+++ b/data/metadata/mapping-numero-habitaciones.xlsx
@@ -13,12 +13,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="536">
   <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/8093</t>
+  </si>
+  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/16190</t>
   </si>
   <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/8093</t>
-  </si>
-  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/17161</t>
   </si>
   <si>
@@ -52,15 +52,15 @@
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/4</t>
   </si>
   <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/5</t>
+  </si>
+  <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/1586</t>
+  </si>
+  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/10308</t>
   </si>
   <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/5</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/1586</t>
-  </si>
-  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/6</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/1005</t>
   </si>
   <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/1488</t>
+  </si>
+  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/1125</t>
   </si>
   <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/1488</t>
-  </si>
-  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/1366</t>
   </si>
   <si>
@@ -151,15 +151,15 @@
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/704</t>
   </si>
   <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/827</t>
+  </si>
+  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/948</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/134391</t>
   </si>
   <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/827</t>
-  </si>
-  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/708</t>
   </si>
   <si>
@@ -310,21 +310,21 @@
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/753</t>
   </si>
   <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/754</t>
+  </si>
+  <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/633</t>
+  </si>
+  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/2025</t>
   </si>
   <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/754</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/633</t>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/1177</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/3113</t>
   </si>
   <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/1177</t>
-  </si>
-  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/878</t>
   </si>
   <si>
@@ -355,12 +355,12 @@
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/523</t>
   </si>
   <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/887</t>
+  </si>
+  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/3487</t>
   </si>
   <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/887</t>
-  </si>
-  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/646</t>
   </si>
   <si>
@@ -868,18 +868,18 @@
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/120</t>
   </si>
   <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/363</t>
+  </si>
+  <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/242</t>
+  </si>
+  <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/121</t>
+  </si>
+  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/484</t>
   </si>
   <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/363</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/242</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/121</t>
-  </si>
-  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/122</t>
   </si>
   <si>
@@ -976,15 +976,15 @@
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/372</t>
   </si>
   <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/131</t>
+  </si>
+  <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/252</t>
+  </si>
+  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/373</t>
   </si>
   <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/131</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/252</t>
-  </si>
-  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/253</t>
   </si>
   <si>
@@ -1060,12 +1060,12 @@
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/38</t>
   </si>
   <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/39</t>
+  </si>
+  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/21099</t>
   </si>
   <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/39</t>
-  </si>
-  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/381</t>
   </si>
   <si>
@@ -1240,12 +1240,12 @@
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/57</t>
   </si>
   <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/58</t>
+  </si>
+  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/5198</t>
   </si>
   <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/58</t>
-  </si>
-  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/59</t>
   </si>
   <si>
@@ -1555,12 +1555,12 @@
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/2730</t>
   </si>
   <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/1528</t>
+  </si>
+  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/17557</t>
   </si>
   <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/1528</t>
-  </si>
-  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/25291</t>
   </si>
   <si>
@@ -1585,10 +1585,10 @@
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/1783</t>
   </si>
   <si>
+    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/2766</t>
+  </si>
+  <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/5917</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/2766</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/numero-habitaciones/1313</t>
@@ -1687,7 +1687,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1">
-        <v>16190.0</v>
+        <v>8093.0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>8093.0</v>
+        <v>16190.0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>10308.0</v>
+        <v>5.0</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>5.0</v>
+        <v>1586.0</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>1586.0</v>
+        <v>10308.0</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1">
-        <v>1125.0</v>
+        <v>1488.0</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>39</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>1488.0</v>
+        <v>1125.0</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>40</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1">
-        <v>948.0</v>
+        <v>827.0</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>46</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1">
-        <v>134391.0</v>
+        <v>948.0</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>47</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1">
-        <v>827.0</v>
+        <v>134391.0</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>48</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1">
-        <v>2025.0</v>
+        <v>754.0</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>99</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1">
-        <v>754.0</v>
+        <v>633.0</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>100</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1">
-        <v>633.0</v>
+        <v>2025.0</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>101</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1">
-        <v>3113.0</v>
+        <v>1177.0</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>102</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1">
-        <v>1177.0</v>
+        <v>3113.0</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>103</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1">
-        <v>3487.0</v>
+        <v>887.0</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>114</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1">
-        <v>887.0</v>
+        <v>3487.0</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>115</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="285">
       <c r="A285" s="1">
-        <v>484.0</v>
+        <v>363.0</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>285</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="286">
       <c r="A286" s="1">
-        <v>363.0</v>
+        <v>242.0</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>286</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="287">
       <c r="A287" s="1">
-        <v>242.0</v>
+        <v>121.0</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>287</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="288">
       <c r="A288" s="1">
-        <v>121.0</v>
+        <v>484.0</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>288</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="321">
       <c r="A321" s="1">
-        <v>373.0</v>
+        <v>131.0</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>321</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="322">
       <c r="A322" s="1">
-        <v>131.0</v>
+        <v>252.0</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>322</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="323">
       <c r="A323" s="1">
-        <v>252.0</v>
+        <v>373.0</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>323</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="349">
       <c r="A349" s="1">
-        <v>21099.0</v>
+        <v>39.0</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>349</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="350">
       <c r="A350" s="1">
-        <v>39.0</v>
+        <v>21099.0</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>350</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="409">
       <c r="A409" s="1">
-        <v>5198.0</v>
+        <v>58.0</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>409</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="410">
       <c r="A410" s="1">
-        <v>58.0</v>
+        <v>5198.0</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>410</v>
@@ -5791,7 +5791,7 @@
     </row>
     <row r="514">
       <c r="A514" s="1">
-        <v>17557.0</v>
+        <v>1528.0</v>
       </c>
       <c r="B514" s="2" t="s">
         <v>514</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="515">
       <c r="A515" s="1">
-        <v>1528.0</v>
+        <v>17557.0</v>
       </c>
       <c r="B515" s="2" t="s">
         <v>515</v>
@@ -5871,7 +5871,7 @@
     </row>
     <row r="524">
       <c r="A524" s="1">
-        <v>5917.0</v>
+        <v>2766.0</v>
       </c>
       <c r="B524" s="2" t="s">
         <v>524</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="525">
       <c r="A525" s="1">
-        <v>2766.0</v>
+        <v>5917.0</v>
       </c>
       <c r="B525" s="2" t="s">
         <v>525</v>

--- a/data/metadata/mapping-numero-habitaciones.xlsx
+++ b/data/metadata/mapping-numero-habitaciones.xlsx
@@ -1646,20 +1646,25 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1669,15 +1674,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
